--- a/excelData/L_1040-2.1.xlsx
+++ b/excelData/L_1040-2.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12825" windowHeight="15915" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12825" windowHeight="15915" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="T_6.5t_t_196_00226_00_000" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="38">
   <si>
     <t>어댑터1</t>
   </si>
@@ -95,15 +95,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>telesopableLoads</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>o</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
   </si>
   <si>
     <t>t_196_00226_00_000 / 00009_00_000</t>
@@ -166,6 +159,24 @@
   </si>
   <si>
     <t>t_196_00040_00_000 / 00048_00_000 / 00056_00_000 / 00064_00_000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>telescopableLoads: x</t>
+  </si>
+  <si>
+    <t>telescopableLoads: o</t>
+  </si>
+  <si>
+    <t>optional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -644,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M43" sqref="A1:O47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1236,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
@@ -1280,49 +1291,49 @@
     </row>
     <row r="14" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -2453,7 +2464,7 @@
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
       <c r="O47" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2466,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3116,105 +3127,105 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4299,7 @@
       <c r="O40" s="14"/>
       <c r="P40" s="13"/>
       <c r="Q40" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4301,8 +4312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4856,7 +4867,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
@@ -4897,46 +4908,46 @@
     </row>
     <row r="14" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -5966,6 +5977,1700 @@
       <c r="L44" s="10"/>
       <c r="M44" s="10">
         <v>0.7</v>
+      </c>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16:T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="C1" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="D1" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="E1" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="G1" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="H1" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="I1" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="J1" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="K1" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="L1" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="M1" s="2">
+        <v>35</v>
+      </c>
+      <c r="N1" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <f>B2-SUM(B3:B7)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:N8" si="0">C2-SUM(C3:C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5">
+        <v>360</v>
+      </c>
+      <c r="C11" s="5">
+        <v>360</v>
+      </c>
+      <c r="D11" s="5">
+        <v>360</v>
+      </c>
+      <c r="E11" s="5">
+        <v>360</v>
+      </c>
+      <c r="F11" s="5">
+        <v>360</v>
+      </c>
+      <c r="G11" s="5">
+        <v>360</v>
+      </c>
+      <c r="H11" s="5">
+        <v>360</v>
+      </c>
+      <c r="I11" s="5">
+        <v>360</v>
+      </c>
+      <c r="J11" s="5">
+        <v>360</v>
+      </c>
+      <c r="K11" s="5">
+        <v>360</v>
+      </c>
+      <c r="L11" s="5">
+        <v>360</v>
+      </c>
+      <c r="M11" s="5">
+        <v>360</v>
+      </c>
+      <c r="N11" s="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="L12" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="N12" s="5">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>3</v>
+      </c>
+      <c r="B15" s="8">
+        <v>30.4</v>
+      </c>
+      <c r="C15" s="8">
+        <v>19.7</v>
+      </c>
+      <c r="D15" s="8">
+        <v>15.4</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="B16" s="10">
+        <v>27.7</v>
+      </c>
+      <c r="C16" s="10">
+        <v>20.2</v>
+      </c>
+      <c r="D16" s="10">
+        <v>15.5</v>
+      </c>
+      <c r="E16" s="10">
+        <v>17.5</v>
+      </c>
+      <c r="F16" s="10">
+        <v>13.1</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12">
+        <v>25.2</v>
+      </c>
+      <c r="C17" s="12">
+        <v>20.6</v>
+      </c>
+      <c r="D17" s="12">
+        <v>15.6</v>
+      </c>
+      <c r="E17" s="12">
+        <v>18</v>
+      </c>
+      <c r="F17" s="12">
+        <v>13</v>
+      </c>
+      <c r="G17" s="12">
+        <v>15.1</v>
+      </c>
+      <c r="H17" s="12">
+        <v>10.4</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="B18" s="12">
+        <v>23.1</v>
+      </c>
+      <c r="C18" s="12">
+        <v>21.2</v>
+      </c>
+      <c r="D18" s="12">
+        <v>15.9</v>
+      </c>
+      <c r="E18" s="12">
+        <v>18.3</v>
+      </c>
+      <c r="F18" s="12">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12">
+        <v>14.8</v>
+      </c>
+      <c r="H18" s="12">
+        <v>10.3</v>
+      </c>
+      <c r="I18" s="12">
+        <v>10.7</v>
+      </c>
+      <c r="J18" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>5</v>
+      </c>
+      <c r="B19" s="10">
+        <v>21.2</v>
+      </c>
+      <c r="C19" s="10">
+        <v>21</v>
+      </c>
+      <c r="D19" s="10">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E19" s="10">
+        <v>18.3</v>
+      </c>
+      <c r="F19" s="10">
+        <v>12.8</v>
+      </c>
+      <c r="G19" s="10">
+        <v>14.3</v>
+      </c>
+      <c r="H19" s="10">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I19" s="10">
+        <v>10.6</v>
+      </c>
+      <c r="J19" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="K19" s="10">
+        <v>9</v>
+      </c>
+      <c r="L19" s="10">
+        <v>5</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>6</v>
+      </c>
+      <c r="B20" s="10">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D20" s="10">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E20" s="10">
+        <v>15.3</v>
+      </c>
+      <c r="F20" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="G20" s="10">
+        <v>13.3</v>
+      </c>
+      <c r="H20" s="10">
+        <v>10</v>
+      </c>
+      <c r="I20" s="10">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J20" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="K20" s="10">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L20" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="M20" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="N20" s="10">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>7</v>
+      </c>
+      <c r="B21" s="12">
+        <v>12.9</v>
+      </c>
+      <c r="C21" s="12">
+        <v>13.3</v>
+      </c>
+      <c r="D21" s="12">
+        <v>13.3</v>
+      </c>
+      <c r="E21" s="12">
+        <v>12.4</v>
+      </c>
+      <c r="F21" s="12">
+        <v>12.2</v>
+      </c>
+      <c r="G21" s="12">
+        <v>11.7</v>
+      </c>
+      <c r="H21" s="12">
+        <v>9.9</v>
+      </c>
+      <c r="I21" s="12">
+        <v>9.6</v>
+      </c>
+      <c r="J21" s="12">
+        <v>7</v>
+      </c>
+      <c r="K21" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="L21" s="12">
+        <v>5.2</v>
+      </c>
+      <c r="M21" s="12">
+        <v>7.2</v>
+      </c>
+      <c r="N21" s="12">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>8</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12">
+        <v>10.6</v>
+      </c>
+      <c r="D22" s="12">
+        <v>10.6</v>
+      </c>
+      <c r="E22" s="12">
+        <v>10.4</v>
+      </c>
+      <c r="F22" s="12">
+        <v>10.4</v>
+      </c>
+      <c r="G22" s="12">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H22" s="12">
+        <v>9.6</v>
+      </c>
+      <c r="I22" s="12">
+        <v>8.9</v>
+      </c>
+      <c r="J22" s="12">
+        <v>6.8</v>
+      </c>
+      <c r="K22" s="12">
+        <v>8.1</v>
+      </c>
+      <c r="L22" s="12">
+        <v>5</v>
+      </c>
+      <c r="M22" s="12">
+        <v>6.9</v>
+      </c>
+      <c r="N22" s="12">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>9</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10">
+        <v>8.6</v>
+      </c>
+      <c r="D23" s="10">
+        <v>8.6</v>
+      </c>
+      <c r="E23" s="10">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F23" s="10">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G23" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="H23" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="I23" s="10">
+        <v>8</v>
+      </c>
+      <c r="J23" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="K23" s="10">
+        <v>7.7</v>
+      </c>
+      <c r="L23" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="M23" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="N23" s="10">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>10</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="D24" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="E24" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="F24" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="G24" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="H24" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="I24" s="10">
+        <v>7</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="L24" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M24" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="N24" s="10">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>11</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12">
+        <v>6.1</v>
+      </c>
+      <c r="D25" s="12">
+        <v>6.1</v>
+      </c>
+      <c r="E25" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="F25" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="G25" s="12">
+        <v>6.4</v>
+      </c>
+      <c r="H25" s="12">
+        <v>6.4</v>
+      </c>
+      <c r="I25" s="12">
+        <v>6.1</v>
+      </c>
+      <c r="J25" s="12">
+        <v>5.8</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="M25" s="12">
+        <v>5.9</v>
+      </c>
+      <c r="N25" s="12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>12</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="D26" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="E26" s="12">
+        <v>5.4</v>
+      </c>
+      <c r="F26" s="12">
+        <v>5.4</v>
+      </c>
+      <c r="G26" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="H26" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="I26" s="12">
+        <v>5.4</v>
+      </c>
+      <c r="J26" s="12">
+        <v>5.4</v>
+      </c>
+      <c r="K26" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="L26" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="M26" s="12">
+        <v>5.2</v>
+      </c>
+      <c r="N26" s="12">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>13</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="F27" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="G27" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="H27" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="I27" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="J27" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="K27" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="L27" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="M27" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N27" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>14</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="F28" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="G28" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="H28" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="I28" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="J28" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="K28" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="L28" s="10">
+        <v>4</v>
+      </c>
+      <c r="M28" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N28" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>15</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12">
+        <v>3.7</v>
+      </c>
+      <c r="F29" s="12">
+        <v>3.7</v>
+      </c>
+      <c r="G29" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="H29" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="I29" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="J29" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="K29" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="L29" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="M29" s="12">
+        <v>3.7</v>
+      </c>
+      <c r="N29" s="12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>16</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12">
+        <v>3.2</v>
+      </c>
+      <c r="F30" s="12">
+        <v>3.2</v>
+      </c>
+      <c r="G30" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="H30" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="I30" s="12">
+        <v>3.4</v>
+      </c>
+      <c r="J30" s="12">
+        <v>3.4</v>
+      </c>
+      <c r="K30" s="12">
+        <v>3.4</v>
+      </c>
+      <c r="L30" s="12">
+        <v>3.4</v>
+      </c>
+      <c r="M30" s="12">
+        <v>3.3</v>
+      </c>
+      <c r="N30" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>17</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="F31" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="G31" s="10">
+        <v>3</v>
+      </c>
+      <c r="H31" s="10">
+        <v>3</v>
+      </c>
+      <c r="I31" s="10">
+        <v>3</v>
+      </c>
+      <c r="J31" s="10">
+        <v>3</v>
+      </c>
+      <c r="K31" s="10">
+        <v>3</v>
+      </c>
+      <c r="L31" s="10">
+        <v>3</v>
+      </c>
+      <c r="M31" s="10">
+        <v>3</v>
+      </c>
+      <c r="N31" s="10">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>18</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="H32" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="I32" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="J32" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="K32" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="L32" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="M32" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="N32" s="10">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>19</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H33" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I33" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="J33" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="K33" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="L33" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="M33" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="N33" s="12">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>20</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="H34" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="I34" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="J34" s="12">
+        <v>2.1</v>
+      </c>
+      <c r="K34" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L34" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M34" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N34" s="12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>21</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="H35" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="I35" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="J35" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="K35" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="L35" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="M35" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="N35" s="10">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>22</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="H36" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="I36" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="J36" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="K36" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="L36" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="M36" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="N36" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>23</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="J37" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="K37" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="L37" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="M37" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="N37" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>24</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="J38" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="K38" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="L38" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="M38" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="N38" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>25</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="J39" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="K39" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="L39" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="M39" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="N39" s="10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>26</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J40" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K40" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L40" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M40" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>27</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="K41" s="12">
+        <v>1</v>
+      </c>
+      <c r="L41" s="12">
+        <v>1</v>
+      </c>
+      <c r="M41" s="12">
+        <v>1</v>
+      </c>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
+        <v>28</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="L42" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="M42" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>29</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="L43" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="M43" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>30</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10">
+        <v>0.6</v>
       </c>
       <c r="N44" s="10"/>
     </row>
@@ -5993,12 +7698,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6508,43 +8213,43 @@
         <v>4</v>
       </c>
       <c r="B12" s="5">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="C12" s="5">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="D12" s="5">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="E12" s="5">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="F12" s="5">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="G12" s="5">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H12" s="5">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="I12" s="5">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="J12" s="5">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="K12" s="5">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="L12" s="5">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="M12" s="5">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="N12" s="5">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
@@ -6593,1740 +8298,46 @@
     </row>
     <row r="14" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>3</v>
-      </c>
-      <c r="B15" s="8">
-        <v>30.4</v>
-      </c>
-      <c r="C15" s="8">
-        <v>19.7</v>
-      </c>
-      <c r="D15" s="8">
-        <v>15.4</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="B16" s="10">
-        <v>27.7</v>
-      </c>
-      <c r="C16" s="10">
-        <v>20.2</v>
-      </c>
-      <c r="D16" s="10">
-        <v>15.5</v>
-      </c>
-      <c r="E16" s="10">
-        <v>17.5</v>
-      </c>
-      <c r="F16" s="10">
-        <v>13.1</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>4</v>
-      </c>
-      <c r="B17" s="12">
-        <v>25.2</v>
-      </c>
-      <c r="C17" s="12">
-        <v>20.6</v>
-      </c>
-      <c r="D17" s="12">
-        <v>15.6</v>
-      </c>
-      <c r="E17" s="12">
-        <v>18</v>
-      </c>
-      <c r="F17" s="12">
-        <v>13</v>
-      </c>
-      <c r="G17" s="12">
-        <v>15.1</v>
-      </c>
-      <c r="H17" s="12">
-        <v>10.4</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="B18" s="12">
-        <v>23.1</v>
-      </c>
-      <c r="C18" s="12">
-        <v>21.2</v>
-      </c>
-      <c r="D18" s="12">
-        <v>15.9</v>
-      </c>
-      <c r="E18" s="12">
-        <v>18.3</v>
-      </c>
-      <c r="F18" s="12">
-        <v>13</v>
-      </c>
-      <c r="G18" s="12">
-        <v>14.8</v>
-      </c>
-      <c r="H18" s="12">
-        <v>10.3</v>
-      </c>
-      <c r="I18" s="12">
-        <v>10.7</v>
-      </c>
-      <c r="J18" s="12">
-        <v>7.5</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>5</v>
-      </c>
-      <c r="B19" s="10">
-        <v>21.2</v>
-      </c>
-      <c r="C19" s="10">
-        <v>21</v>
-      </c>
-      <c r="D19" s="10">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="E19" s="10">
-        <v>18.3</v>
-      </c>
-      <c r="F19" s="10">
-        <v>12.8</v>
-      </c>
-      <c r="G19" s="10">
-        <v>14.3</v>
-      </c>
-      <c r="H19" s="10">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I19" s="10">
-        <v>10.6</v>
-      </c>
-      <c r="J19" s="10">
-        <v>7.4</v>
-      </c>
-      <c r="K19" s="10">
-        <v>9</v>
-      </c>
-      <c r="L19" s="10">
-        <v>5</v>
-      </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>6</v>
-      </c>
-      <c r="B20" s="10">
-        <v>17</v>
-      </c>
-      <c r="C20" s="10">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="D20" s="10">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="E20" s="10">
-        <v>15.3</v>
-      </c>
-      <c r="F20" s="10">
-        <v>12.5</v>
-      </c>
-      <c r="G20" s="10">
-        <v>13.3</v>
-      </c>
-      <c r="H20" s="10">
-        <v>10</v>
-      </c>
-      <c r="I20" s="10">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="J20" s="10">
-        <v>7.2</v>
-      </c>
-      <c r="K20" s="10">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="L20" s="10">
-        <v>5.4</v>
-      </c>
-      <c r="M20" s="10">
-        <v>7.4</v>
-      </c>
-      <c r="N20" s="10">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>7</v>
-      </c>
-      <c r="B21" s="12">
-        <v>12.9</v>
-      </c>
-      <c r="C21" s="12">
-        <v>13.3</v>
-      </c>
-      <c r="D21" s="12">
-        <v>13.3</v>
-      </c>
-      <c r="E21" s="12">
-        <v>12.4</v>
-      </c>
-      <c r="F21" s="12">
-        <v>12.2</v>
-      </c>
-      <c r="G21" s="12">
-        <v>11.7</v>
-      </c>
-      <c r="H21" s="12">
-        <v>9.9</v>
-      </c>
-      <c r="I21" s="12">
-        <v>9.6</v>
-      </c>
-      <c r="J21" s="12">
-        <v>7</v>
-      </c>
-      <c r="K21" s="12">
-        <v>8.5</v>
-      </c>
-      <c r="L21" s="12">
-        <v>5.2</v>
-      </c>
-      <c r="M21" s="12">
-        <v>7.2</v>
-      </c>
-      <c r="N21" s="12">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>8</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12">
-        <v>10.6</v>
-      </c>
-      <c r="D22" s="12">
-        <v>10.6</v>
-      </c>
-      <c r="E22" s="12">
-        <v>10.4</v>
-      </c>
-      <c r="F22" s="12">
-        <v>10.4</v>
-      </c>
-      <c r="G22" s="12">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="H22" s="12">
-        <v>9.6</v>
-      </c>
-      <c r="I22" s="12">
-        <v>8.9</v>
-      </c>
-      <c r="J22" s="12">
-        <v>6.8</v>
-      </c>
-      <c r="K22" s="12">
-        <v>8.1</v>
-      </c>
-      <c r="L22" s="12">
-        <v>5</v>
-      </c>
-      <c r="M22" s="12">
-        <v>6.9</v>
-      </c>
-      <c r="N22" s="12">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>9</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10">
-        <v>8.6</v>
-      </c>
-      <c r="D23" s="10">
-        <v>8.6</v>
-      </c>
-      <c r="E23" s="10">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F23" s="10">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G23" s="10">
-        <v>8.4</v>
-      </c>
-      <c r="H23" s="10">
-        <v>8.4</v>
-      </c>
-      <c r="I23" s="10">
-        <v>8</v>
-      </c>
-      <c r="J23" s="10">
-        <v>6.5</v>
-      </c>
-      <c r="K23" s="10">
-        <v>7.7</v>
-      </c>
-      <c r="L23" s="10">
-        <v>4.8</v>
-      </c>
-      <c r="M23" s="10">
-        <v>6.6</v>
-      </c>
-      <c r="N23" s="10">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>10</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10">
-        <v>7.2</v>
-      </c>
-      <c r="D24" s="10">
-        <v>7.2</v>
-      </c>
-      <c r="E24" s="10">
-        <v>7.4</v>
-      </c>
-      <c r="F24" s="10">
-        <v>7.4</v>
-      </c>
-      <c r="G24" s="10">
-        <v>7.3</v>
-      </c>
-      <c r="H24" s="10">
-        <v>7.3</v>
-      </c>
-      <c r="I24" s="10">
-        <v>7</v>
-      </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10">
-        <v>6.8</v>
-      </c>
-      <c r="L24" s="10">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M24" s="10">
-        <v>6.3</v>
-      </c>
-      <c r="N24" s="10">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>11</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12">
-        <v>6.1</v>
-      </c>
-      <c r="D25" s="12">
-        <v>6.1</v>
-      </c>
-      <c r="E25" s="12">
-        <v>6.3</v>
-      </c>
-      <c r="F25" s="12">
-        <v>6.3</v>
-      </c>
-      <c r="G25" s="12">
-        <v>6.4</v>
-      </c>
-      <c r="H25" s="12">
-        <v>6.4</v>
-      </c>
-      <c r="I25" s="12">
-        <v>6.1</v>
-      </c>
-      <c r="J25" s="12">
-        <v>5.8</v>
-      </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="M25" s="12">
-        <v>5.9</v>
-      </c>
-      <c r="N25" s="12">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>12</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12">
-        <v>5.3</v>
-      </c>
-      <c r="D26" s="12">
-        <v>5.3</v>
-      </c>
-      <c r="E26" s="12">
-        <v>5.4</v>
-      </c>
-      <c r="F26" s="12">
-        <v>5.4</v>
-      </c>
-      <c r="G26" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="H26" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="I26" s="12">
-        <v>5.4</v>
-      </c>
-      <c r="J26" s="12">
-        <v>5.4</v>
-      </c>
-      <c r="K26" s="12">
-        <v>5.3</v>
-      </c>
-      <c r="L26" s="12">
-        <v>4.3</v>
-      </c>
-      <c r="M26" s="12">
-        <v>5.2</v>
-      </c>
-      <c r="N26" s="12">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>13</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10">
-        <v>4.7</v>
-      </c>
-      <c r="F27" s="10">
-        <v>4.7</v>
-      </c>
-      <c r="G27" s="10">
-        <v>4.8</v>
-      </c>
-      <c r="H27" s="10">
-        <v>4.8</v>
-      </c>
-      <c r="I27" s="10">
-        <v>4.8</v>
-      </c>
-      <c r="J27" s="10">
-        <v>4.8</v>
-      </c>
-      <c r="K27" s="10">
-        <v>4.7</v>
-      </c>
-      <c r="L27" s="10">
-        <v>4.2</v>
-      </c>
-      <c r="M27" s="10">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="N27" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>14</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10">
-        <v>4.2</v>
-      </c>
-      <c r="F28" s="10">
-        <v>4.2</v>
-      </c>
-      <c r="G28" s="10">
-        <v>4.2</v>
-      </c>
-      <c r="H28" s="10">
-        <v>4.2</v>
-      </c>
-      <c r="I28" s="10">
-        <v>4.3</v>
-      </c>
-      <c r="J28" s="10">
-        <v>4.3</v>
-      </c>
-      <c r="K28" s="10">
-        <v>4.2</v>
-      </c>
-      <c r="L28" s="10">
-        <v>4</v>
-      </c>
-      <c r="M28" s="10">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="N28" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
-        <v>15</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12">
-        <v>3.7</v>
-      </c>
-      <c r="F29" s="12">
-        <v>3.7</v>
-      </c>
-      <c r="G29" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="H29" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="I29" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="J29" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="K29" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="L29" s="12">
-        <v>3.8</v>
-      </c>
-      <c r="M29" s="12">
-        <v>3.7</v>
-      </c>
-      <c r="N29" s="12">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
-        <v>16</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="F30" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="G30" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="H30" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="I30" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="J30" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="K30" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="L30" s="12">
-        <v>3.4</v>
-      </c>
-      <c r="M30" s="12">
-        <v>3.3</v>
-      </c>
-      <c r="N30" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
-        <v>17</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10">
-        <v>2.9</v>
-      </c>
-      <c r="F31" s="10">
-        <v>2.9</v>
-      </c>
-      <c r="G31" s="10">
-        <v>3</v>
-      </c>
-      <c r="H31" s="10">
-        <v>3</v>
-      </c>
-      <c r="I31" s="10">
-        <v>3</v>
-      </c>
-      <c r="J31" s="10">
-        <v>3</v>
-      </c>
-      <c r="K31" s="10">
-        <v>3</v>
-      </c>
-      <c r="L31" s="10">
-        <v>3</v>
-      </c>
-      <c r="M31" s="10">
-        <v>3</v>
-      </c>
-      <c r="N31" s="10">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
-        <v>18</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="H32" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="I32" s="10">
-        <v>2.7</v>
-      </c>
-      <c r="J32" s="10">
-        <v>2.7</v>
-      </c>
-      <c r="K32" s="10">
-        <v>2.7</v>
-      </c>
-      <c r="L32" s="10">
-        <v>2.7</v>
-      </c>
-      <c r="M32" s="10">
-        <v>2.7</v>
-      </c>
-      <c r="N32" s="10">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
-        <v>19</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H33" s="12">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I33" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="J33" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="K33" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="L33" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="M33" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="N33" s="12">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
-        <v>20</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="H34" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="I34" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="J34" s="12">
-        <v>2.1</v>
-      </c>
-      <c r="K34" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L34" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M34" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N34" s="12">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
-        <v>21</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10">
-        <v>1.9</v>
-      </c>
-      <c r="H35" s="10">
-        <v>1.9</v>
-      </c>
-      <c r="I35" s="10">
-        <v>1.9</v>
-      </c>
-      <c r="J35" s="10">
-        <v>1.9</v>
-      </c>
-      <c r="K35" s="10">
-        <v>1.9</v>
-      </c>
-      <c r="L35" s="10">
-        <v>1.9</v>
-      </c>
-      <c r="M35" s="10">
-        <v>1.9</v>
-      </c>
-      <c r="N35" s="10">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>22</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="H36" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="I36" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="J36" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="K36" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="L36" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="M36" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="N36" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
-        <v>23</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="J37" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="K37" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="L37" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="M37" s="12">
-        <v>1.6</v>
-      </c>
-      <c r="N37" s="12">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
-        <v>24</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="J38" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="K38" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="L38" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="M38" s="12">
-        <v>1.4</v>
-      </c>
-      <c r="N38" s="12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
-        <v>25</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="J39" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="K39" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="L39" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="M39" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="N39" s="10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
-        <v>26</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J40" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K40" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L40" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M40" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N40" s="10"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
-        <v>27</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="J41" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="K41" s="12">
-        <v>1</v>
-      </c>
-      <c r="L41" s="12">
-        <v>1</v>
-      </c>
-      <c r="M41" s="12">
-        <v>1</v>
-      </c>
-      <c r="N41" s="12"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
-        <v>28</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="L42" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="M42" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="N42" s="12"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
-        <v>29</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="L43" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="M43" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="N43" s="10"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
-        <v>30</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="N44" s="10"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="C1" s="2">
-        <v>15.4</v>
-      </c>
-      <c r="D1" s="2">
-        <v>15.4</v>
-      </c>
-      <c r="E1" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="F1" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="G1" s="2">
-        <v>25.2</v>
-      </c>
-      <c r="H1" s="2">
-        <v>25.2</v>
-      </c>
-      <c r="I1" s="2">
-        <v>30.1</v>
-      </c>
-      <c r="J1" s="2">
-        <v>30.1</v>
-      </c>
-      <c r="K1" s="2">
-        <v>32.6</v>
-      </c>
-      <c r="L1" s="2">
-        <v>32.6</v>
-      </c>
-      <c r="M1" s="2">
-        <v>35</v>
-      </c>
-      <c r="N1" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
-        <f>B2-SUM(B3:B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" ref="C8:N8" si="0">C2-SUM(C3:C7)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5">
-        <v>360</v>
-      </c>
-      <c r="C11" s="5">
-        <v>360</v>
-      </c>
-      <c r="D11" s="5">
-        <v>360</v>
-      </c>
-      <c r="E11" s="5">
-        <v>360</v>
-      </c>
-      <c r="F11" s="5">
-        <v>360</v>
-      </c>
-      <c r="G11" s="5">
-        <v>360</v>
-      </c>
-      <c r="H11" s="5">
-        <v>360</v>
-      </c>
-      <c r="I11" s="5">
-        <v>360</v>
-      </c>
-      <c r="J11" s="5">
-        <v>360</v>
-      </c>
-      <c r="K11" s="5">
-        <v>360</v>
-      </c>
-      <c r="L11" s="5">
-        <v>360</v>
-      </c>
-      <c r="M11" s="5">
-        <v>360</v>
-      </c>
-      <c r="N11" s="5">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="M12" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="N12" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -9306,7 +9317,7 @@
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
       <c r="N42" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -9319,8 +9330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9541,33 +9552,33 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -9760,7 +9771,7 @@
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -9773,8 +9784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10069,45 +10080,45 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -10304,7 +10315,7 @@
       <c r="E25" s="14"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -10317,8 +10328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N41" sqref="A1:U51"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11131,7 +11142,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
@@ -11193,67 +11204,67 @@
     </row>
     <row r="14" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -12882,7 +12893,7 @@
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
       <c r="U51" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -12895,8 +12906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B1:Q14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13561,7 +13572,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
@@ -13611,55 +13622,55 @@
     </row>
     <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -15001,7 +15012,7 @@
       <c r="O48" s="14"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -15014,8 +15025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N35" sqref="A1:U45"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15828,7 +15839,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>6</v>
@@ -15890,67 +15901,67 @@
     </row>
     <row r="14" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -17381,7 +17392,7 @@
       <c r="S45" s="13"/>
       <c r="T45" s="13"/>
       <c r="U45" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/excelData/L_1040-2.1.xlsx
+++ b/excelData/L_1040-2.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Back File\platcube\Crigging\excelConvForRigging\excelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\sesia\dev\criggingAlgorithme\excelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12825" windowHeight="15915" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12825" windowHeight="15915" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="T_6.5t_t_196_00226_00_000" sheetId="1" r:id="rId1"/>
@@ -653,9 +653,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
@@ -2469,12 +2472,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -4304,7 +4312,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4312,7 +4322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
@@ -6001,6 +6011,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6008,7 +6019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
@@ -7695,6 +7706,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7702,7 +7714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
@@ -9323,6 +9335,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9330,7 +9343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
@@ -9777,6 +9790,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9784,7 +9798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
@@ -10321,6 +10335,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10328,7 +10343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
@@ -12899,6 +12914,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12906,7 +12922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
@@ -15018,6 +15034,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15025,7 +15042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T16" sqref="T16:T17"/>
     </sheetView>
   </sheetViews>
@@ -17398,5 +17415,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>